--- a/Mifos Automation Excels/Client/2364-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DLR-LATE-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2364-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DLR-LATE-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -232,14 +232,10 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,7 +561,7 @@
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>42050</v>
       </c>
     </row>
@@ -580,7 +576,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A7" sqref="A7:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,26 +615,26 @@
         <v>5000</v>
       </c>
       <c r="B2" s="6">
-        <v>833.33</v>
+        <v>820.83</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="8">
-        <v>4167</v>
-      </c>
-      <c r="F2" s="9">
-        <v>1666.67</v>
+      <c r="E2" s="9">
+        <v>4179.17</v>
+      </c>
+      <c r="F2" s="6">
+        <v>845.83</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>107.08</v>
+      <c r="A3" s="6">
+        <v>111.19</v>
       </c>
       <c r="B3" s="6">
-        <v>16.670000000000002</v>
+        <v>29.17</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
@@ -646,11 +642,11 @@
       <c r="D3" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="10">
-        <v>90.41</v>
-      </c>
-      <c r="F3" s="10">
-        <v>37.56</v>
+      <c r="E3" s="6">
+        <v>82.02</v>
+      </c>
+      <c r="F3" s="6">
+        <v>12.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -700,10 +696,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +797,6 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -816,13 +811,13 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="10">
+      <c r="F3" s="6">
         <v>833.33</v>
       </c>
       <c r="G3" s="9">
         <v>4166.67</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="6">
         <v>16.670000000000002</v>
       </c>
       <c r="I3" s="6">
@@ -831,27 +826,29 @@
       <c r="J3" s="6">
         <v>0</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="6">
         <v>850</v>
       </c>
       <c r="L3" s="6">
-        <v>0</v>
+        <v>837.5</v>
       </c>
       <c r="M3" s="6">
         <v>0</v>
       </c>
       <c r="N3" s="6">
-        <v>0</v>
+        <v>837.5</v>
       </c>
       <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="6">
-        <v>11.67</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
       <c r="B4" s="6">
         <v>14</v>
       </c>
@@ -861,15 +858,15 @@
       <c r="D4" s="7">
         <v>42050</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="10">
+      <c r="E4" s="11"/>
+      <c r="F4" s="6">
         <v>0</v>
       </c>
       <c r="G4" s="9">
         <v>4166.67</v>
       </c>
-      <c r="H4" s="10">
-        <v>11.67</v>
+      <c r="H4" s="6">
+        <v>12.5</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -877,22 +874,28 @@
       <c r="J4" s="6">
         <v>0</v>
       </c>
-      <c r="K4" s="10">
-        <v>11.67</v>
+      <c r="K4" s="6">
+        <v>12.5</v>
       </c>
       <c r="L4" s="6">
-        <v>11.67</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
       <c r="P4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="6">
         <v>14</v>
@@ -902,14 +905,14 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="10">
+      <c r="F5" s="6">
         <v>833.33</v>
       </c>
       <c r="G5" s="9">
-        <v>3333.33</v>
-      </c>
-      <c r="H5" s="10">
-        <v>20.89</v>
+        <v>3333.34</v>
+      </c>
+      <c r="H5" s="6">
+        <v>12.5</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -917,8 +920,8 @@
       <c r="J5" s="6">
         <v>0</v>
       </c>
-      <c r="K5" s="10">
-        <v>854.23</v>
+      <c r="K5" s="6">
+        <v>845.83</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -932,13 +935,13 @@
       <c r="O5" s="6">
         <v>0</v>
       </c>
-      <c r="P5" s="10">
-        <v>854.23</v>
+      <c r="P5" s="6">
+        <v>845.83</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6">
         <v>31</v>
@@ -948,13 +951,13 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="10">
+      <c r="F6" s="6">
         <v>833.33</v>
       </c>
       <c r="G6" s="9">
-        <v>2500</v>
-      </c>
-      <c r="H6" s="10">
+        <v>2500.0100000000002</v>
+      </c>
+      <c r="H6" s="6">
         <v>27.86</v>
       </c>
       <c r="I6" s="6">
@@ -963,7 +966,7 @@
       <c r="J6" s="6">
         <v>0</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="6">
         <v>861.19</v>
       </c>
       <c r="L6" s="6">
@@ -978,13 +981,13 @@
       <c r="O6" s="6">
         <v>0</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="6">
         <v>861.19</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6">
         <v>30</v>
@@ -994,13 +997,13 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="10">
+      <c r="F7" s="6">
         <v>833.33</v>
       </c>
       <c r="G7" s="9">
-        <v>1666.67</v>
-      </c>
-      <c r="H7" s="10">
+        <v>1666.68</v>
+      </c>
+      <c r="H7" s="6">
         <v>20.83</v>
       </c>
       <c r="I7" s="6">
@@ -1009,8 +1012,8 @@
       <c r="J7" s="6">
         <v>0</v>
       </c>
-      <c r="K7" s="10">
-        <v>854.17</v>
+      <c r="K7" s="6">
+        <v>854.16</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -1024,13 +1027,13 @@
       <c r="O7" s="6">
         <v>0</v>
       </c>
-      <c r="P7" s="10">
-        <v>854.17</v>
+      <c r="P7" s="6">
+        <v>854.16</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6">
         <v>31</v>
@@ -1040,13 +1043,13 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="10">
+      <c r="F8" s="6">
         <v>833.33</v>
       </c>
-      <c r="G8" s="9">
-        <v>833.33</v>
-      </c>
-      <c r="H8" s="10">
+      <c r="G8" s="6">
+        <v>833.35</v>
+      </c>
+      <c r="H8" s="6">
         <v>13.89</v>
       </c>
       <c r="I8" s="6">
@@ -1055,7 +1058,7 @@
       <c r="J8" s="6">
         <v>0</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="6">
         <v>847.22</v>
       </c>
       <c r="L8" s="6">
@@ -1070,13 +1073,13 @@
       <c r="O8" s="6">
         <v>0</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="6">
         <v>847.22</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6">
         <v>30</v>
@@ -1086,13 +1089,13 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="10">
+      <c r="F9" s="6">
         <v>833.33</v>
       </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="G9" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="H9" s="6">
         <v>6.94</v>
       </c>
       <c r="I9" s="6">
@@ -1101,8 +1104,8 @@
       <c r="J9" s="6">
         <v>0</v>
       </c>
-      <c r="K9" s="10">
-        <v>840.28</v>
+      <c r="K9" s="6">
+        <v>840.27</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -1116,12 +1119,55 @@
       <c r="O9" s="6">
         <v>0</v>
       </c>
-      <c r="P9" s="10">
-        <v>840.28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F12" s="13"/>
+      <c r="P9" s="6">
+        <v>840.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>31</v>
+      </c>
+      <c r="C10" s="7">
+        <v>42217</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0.02</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1133,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,7 +1232,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1198,13 +1244,13 @@
         <v>31</v>
       </c>
       <c r="E2" s="6">
-        <v>851.25</v>
-      </c>
-      <c r="F2" s="10">
-        <v>833.33</v>
-      </c>
-      <c r="G2" s="10">
-        <v>16.670000000000002</v>
+        <v>850</v>
+      </c>
+      <c r="F2" s="6">
+        <v>820.83</v>
+      </c>
+      <c r="G2" s="6">
+        <v>29.17</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
@@ -1213,14 +1259,14 @@
         <v>0</v>
       </c>
       <c r="J2" s="9">
-        <v>4148.75</v>
-      </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+        <v>4179.17</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/2364-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DLR-LATE-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2364-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DLR-LATE-CASH-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -118,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,6 +251,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -293,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,9 +334,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,6 +386,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -696,10 +738,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,12 +759,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -762,17 +805,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -797,9 +841,10 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -835,17 +880,18 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
         <v>837.5</v>
       </c>
-      <c r="O3" s="6">
-        <v>0</v>
-      </c>
       <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
         <v>12.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -883,17 +929,18 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
+      <c r="N4" s="6"/>
       <c r="O4" s="6">
         <v>0</v>
       </c>
       <c r="P4" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -929,17 +976,18 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
+      <c r="N5" s="6"/>
       <c r="O5" s="6">
         <v>0</v>
       </c>
       <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>845.83</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -975,17 +1023,18 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="6">
         <v>0</v>
       </c>
       <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>861.19</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1021,17 +1070,18 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
+      <c r="N7" s="6"/>
       <c r="O7" s="6">
         <v>0</v>
       </c>
       <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>854.16</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1067,17 +1117,18 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
+      <c r="N8" s="6"/>
       <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>847.22</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1113,17 +1164,18 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
+      <c r="N9" s="6"/>
       <c r="O9" s="6">
         <v>0</v>
       </c>
       <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>840.27</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1159,13 +1211,14 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
+      <c r="N10" s="6"/>
       <c r="O10" s="6">
         <v>0</v>
       </c>
       <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>0.02</v>
       </c>
     </row>
@@ -1179,7 +1232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
